--- a/data/trans_bre/P32A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P32A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,55; 0,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 0,33</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 3,22</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 12,85</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 58,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-52,3%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-85,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>134,07%</t>
         </is>
       </c>
     </row>
@@ -768,37 +768,37 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,6; 1,08</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; -0,92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 0,07</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 3,81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 44,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-87,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,26%</t>
         </is>
       </c>
     </row>
@@ -868,37 +868,37 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,72; -0,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 0,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,21; 2,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 376,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 7,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 68,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-60,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,69%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,33; 0,0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; -0,14</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-3,36; 0,53</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-3,49; 0,24</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 125,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-97,37; 88,89</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>280,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,22%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-6,83; -0,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 8,62</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,87; 6,62</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 1,29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 682,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,82; 86,94</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,71%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-2,78; 0,0</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-6,27; -0,8</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 5,55</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 0,06</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 13,61</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-68,99%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,06%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; -0,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; -0,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 0,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 1,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,11; 2,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,71; -28,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,82; 27,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,38; 75,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 12,85</t>
+          <t>0,35; 12,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>134,07%</t>
+          <t>83,91%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 3,81</t>
+          <t>-1,44; 3,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,26%</t>
+          <t>55,94%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,49</t>
+          <t>-1,15; 2,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-64,69%</t>
+          <t>-64,04%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,24</t>
+          <t>-3,35; 0,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-97,37; 88,89</t>
+          <t>-97,12; 89,58</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-41,22%</t>
+          <t>-42,25%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,29</t>
+          <t>-4,61; 1,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-84,82; 86,94</t>
+          <t>-85,21; 85,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>104,37%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-62,71%</t>
+          <t>-80,52%</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,27; -0,8</t>
+          <t>-5,15; -0,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 5,55</t>
+          <t>-2,71; 5,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,06</t>
+          <t>-5,12; -0,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 13,61</t>
+          <t>-100,0; -4,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-68,99%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-32,38%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>-11,51%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-6,89; 0,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-12,78; 0,0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 15,74</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-3,38; 5,06</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,65</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-68,99%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-66,08%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-32,38%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-22,18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,32; -0,13</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-2,7; -0,74</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,46; 0,42</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 1,03</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 0,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-92,11; 2,66</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-86,71; -28,74</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-63,82; 27,84</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-55,38; 75,61</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-66,76; 50,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P32A-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Edad-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 0,0</t>
+          <t>-2,33; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,33</t>
+          <t>-4,59; 0,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 3,22</t>
+          <t>-1,93; 3,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 12,16</t>
+          <t>0,46; 13,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 58,93</t>
+          <t>-100,0; 69,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,08</t>
+          <t>-1,57; 1,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,92</t>
+          <t>-4,28; -0,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 0,07</t>
+          <t>-4,14; 0,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 3,05</t>
+          <t>-1,48; 2,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,73</t>
+          <t>-100,0; -9,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 44,26</t>
+          <t>-100,0; 68,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,42</t>
+          <t>-1,79; 1,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; -0,85</t>
+          <t>-4,7; -0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,28</t>
+          <t>-3,04; 0,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,45</t>
+          <t>-1,12; 2,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 376,28</t>
+          <t>-100,0; 486,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 7,38</t>
+          <t>-100,0; 3,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 68,56</t>
+          <t>-100,0; 114,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 3569,07</t>
         </is>
       </c>
     </row>
@@ -968,22 +968,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>-2,29; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; -0,14</t>
+          <t>-4,09; -0,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 0,53</t>
+          <t>-3,45; 0,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,27</t>
+          <t>-3,49; 0,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 125,67</t>
+          <t>-100,0; 114,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-97,12; 89,58</t>
+          <t>-97,33; 74,69</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -0,99</t>
+          <t>-6,43; -1,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,62</t>
+          <t>-0,86; 9,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 6,62</t>
+          <t>-1,69; 6,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 1,25</t>
+          <t>-4,33; 1,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 682,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-85,21; 85,18</t>
+          <t>-84,0; 81,72</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,15; -0,61</t>
+          <t>-5,21; -0,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 5,3</t>
+          <t>-2,65; 5,27</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,14</t>
+          <t>-4,99; -0,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,98</t>
+          <t>-100,0; 4,07</t>
         </is>
       </c>
     </row>
@@ -1268,22 +1268,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 0,0</t>
+          <t>-6,99; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 0,0</t>
+          <t>-15,08; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,74</t>
+          <t>0,0; 15,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,06</t>
+          <t>-3,53; 5,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,32; -0,13</t>
+          <t>-1,33; -0,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,7; -0,74</t>
+          <t>-2,57; -0,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,42</t>
+          <t>-1,55; 0,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 0,75</t>
+          <t>-1,36; 0,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-92,11; 2,66</t>
+          <t>-92,29; -2,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,71; -28,74</t>
+          <t>-86,49; -29,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-63,82; 27,84</t>
+          <t>-65,7; 24,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 50,51</t>
+          <t>-67,47; 53,64</t>
         </is>
       </c>
     </row>
